--- a/biology/Écologie/Théorie_de_l'écodéveloppement/Théorie_de_l'écodéveloppement.xlsx
+++ b/biology/Écologie/Théorie_de_l'écodéveloppement/Théorie_de_l'écodéveloppement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_de_l%27%C3%A9cod%C3%A9veloppement</t>
+          <t>Théorie_de_l'écodéveloppement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’écodéveloppement voit le jour en 1972 lors du premier sommet de la terre à Stockholm. C’est l’économiste franco-polonais Ignacy Sachs qui est à l’origine de ce projet, et place alors l’environnement au centre du système de développement idéal pour la survie humaine proposé. Le projet de Sachs sera avorté pour laisser la place à celui de développement durable lors du Sommet de Rio en 1992.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_de_l%27%C3%A9cod%C3%A9veloppement</t>
+          <t>Théorie_de_l'écodéveloppement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’écodéveloppement, qui peut être vu comme le précurseur du développement durable, tient en différents principes qui donnent une version détaillée et complète du concept[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’écodéveloppement, qui peut être vu comme le précurseur du développement durable, tient en différents principes qui donnent une version détaillée et complète du concept.
 Pertinence sociale. Il faut combiner la pertinence sociale et l'équité des solutions suggérées.
 Prudence écologique. L'externalisation des impacts environnementaux ne doit plus être possible.
 Efficacité économique. L'économie doit être mieux situer et son efficacité mesurée.
 Culturel. Chaque modèle de développement propre à un pays va lui permettre de prolonger son histoire et sa culture.
 Territorialité. L'aménagement du territoire et socio-économique doivent être pensés ensemble afin de gérer les impacts.
-Ignacy Sachs, qui oriente tout particulièrement son projet vers le développement des pays du Sud insiste sur l’ordre précis et le caractère hiérarchique de ce programme. Les trois premiers principes (Pertinence sociale, prudence écologique et efficacité économique) constituent la définition simplifiée du concept. Dans cette définition, l’économie n’est pas un pilier à part entière comme dans la définition du développement durable, mais bien un outil incontournable pour arriver à cet objectif de développement[2]. L’efficacité économique est présenté en dernier comme un outil nécessaire, puisque sans cette viabilité économique rien n’est possible.
+Ignacy Sachs, qui oriente tout particulièrement son projet vers le développement des pays du Sud insiste sur l’ordre précis et le caractère hiérarchique de ce programme. Les trois premiers principes (Pertinence sociale, prudence écologique et efficacité économique) constituent la définition simplifiée du concept. Dans cette définition, l’économie n’est pas un pilier à part entière comme dans la définition du développement durable, mais bien un outil incontournable pour arriver à cet objectif de développement. L’efficacité économique est présenté en dernier comme un outil nécessaire, puisque sans cette viabilité économique rien n’est possible.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_de_l%27%C3%A9cod%C3%A9veloppement</t>
+          <t>Théorie_de_l'écodéveloppement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Abandon du projet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1983, l’ancienne ministre norvégienne Gro Harlem Brundtland crée la commission mondiale sur l’environnement et le développement[3], qui va créer un projet conciliant environnement et économie, soit le rapport Brundtland à l’origine de la définition du développement durable. Au sommet de Rio en 1992, le développement durable sera présenté sous ses trois piliers connus encore aujourd’hui[4].
-En réalité, la redistribution des pouvoirs entre les pays du Nord et du Sud remettait en question la domination des pays du Nord, qui se sont alors opposés au projet d’écodéveloppement en tant que tel. De plus, la finalité du modèle de Sachs est éthique et sociale et non économique[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1983, l’ancienne ministre norvégienne Gro Harlem Brundtland crée la commission mondiale sur l’environnement et le développement, qui va créer un projet conciliant environnement et économie, soit le rapport Brundtland à l’origine de la définition du développement durable. Au sommet de Rio en 1992, le développement durable sera présenté sous ses trois piliers connus encore aujourd’hui.
+En réalité, la redistribution des pouvoirs entre les pays du Nord et du Sud remettait en question la domination des pays du Nord, qui se sont alors opposés au projet d’écodéveloppement en tant que tel. De plus, la finalité du modèle de Sachs est éthique et sociale et non économique.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_de_l%27%C3%A9cod%C3%A9veloppement</t>
+          <t>Théorie_de_l'écodéveloppement</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,13 +596,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1972 : Sommet de la Terre à Stockholm et introduction du concept d’écodéveloppement.
-1980 : Publication de l’ouvrage « L’écodéveloppement: stratégies pour le XXIème siècle» de Sachs[6].
-1987 : Publication du rapport Brundtland et introduction du concept de développement durable[7].
+1980 : Publication de l’ouvrage « L’écodéveloppement: stratégies pour le XXIème siècle» de Sachs.
+1987 : Publication du rapport Brundtland et introduction du concept de développement durable.
 1992 : Sommet de la Terre à Rio et définition du développement durable sous la forme de trois piliers.
-1994 : Publication de l’ouvrage « La troisième Rive: à la recherche de l’écodéveloppement » de Sachs[8].</t>
+1994 : Publication de l’ouvrage « La troisième Rive: à la recherche de l’écodéveloppement » de Sachs.</t>
         </is>
       </c>
     </row>
